--- a/output/StructureDefinition-disease-plan.xlsx
+++ b/output/StructureDefinition-disease-plan.xlsx
@@ -1755,8 +1755,8 @@
     <t>PlanDefinition.action.definition[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition|Questionnaire)
-</t>
+    <t>canonical(ActivityDefinition|PlanDefinition|Questionnaire)
+uri</t>
   </si>
   <si>
     <t>Description of the activity to be performed</t>

--- a/output/StructureDefinition-disease-plan.xlsx
+++ b/output/StructureDefinition-disease-plan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="646">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +80,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>4.3.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -221,15 +221,15 @@
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: Object Implementation Information</t>
   </si>
   <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
     <t>Mapping: Rare Care Data Model</t>
   </si>
   <si>
@@ -245,10 +245,13 @@
     <t>The definition of a plan for a series of actions, independent of any specific patient or context</t>
   </si>
   <si>
-    <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
-  </si>
-  <si>
-    <t>Entity. Role, or Act</t>
+    <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical and non-clinical artifacts such as clinical decision support rules, order sets, protocols, and drug quality specifications.</t>
+  </si>
+  <si>
+    <t>Act[classCode=GROUPER;moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>Disease</t>
@@ -337,7 +340,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>IETF language tag</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -395,6 +398,10 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t xml:space="preserve">dom-r4b:Containing new R4B resources within R4 resources may cause interoperability issues if instances are shared with R4 systems {($this is Citation or $this is Evidence or $this is EvidenceReport or $this is EvidenceVariable or $this is MedicinalProductDefinition or $this is PackagedProductDefinition or $this is AdministrableProductDefinition or $this is Ingredient or $this is ClinicalUseDefinition or $this is RegulatedAuthorization or $this is SubstanceDefinition or $this is SubscriptionStatus or $this is SubscriptionTopic) implies (%resource is Citation or %resource is Evidence or %resource is EvidenceReport or %resource is EvidenceVariable or %resource is MedicinalProductDefinition or %resource is PackagedProductDefinition or %resource is AdministrableProductDefinition or %resource is Ingredient or %resource is ClinicalUseDefinition or %resource is RegulatedAuthorization or %resource is SubstanceDefinition or %resource is SubscriptionStatus or %resource is SubscriptionTopic)}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -435,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/2021Mar/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -451,14 +458,17 @@
   </si>
   <si>
     <t>Can be a urn:uuid: or a urn:oid: but real http: addresses are preferred.  Multiple instances may share the same URL if they have a distinct version.
-The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/R4/resource.html#versions). 
-In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/R4/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
+The determination of when to create a new version of a resource (same url, new version) vs. defining a new artifact is up to the author.  Considerations for making this decision are found in [Technical and Business Versions](http://hl7.org/fhir/2021Mar/resource.html#versions). 
+In some cases, the resource can no longer be found at the stated url, but the url itself cannot change. Implementations can use the [meta.source](http://hl7.org/fhir/2021Mar/resource.html#meta) element to indicate where the current master source of the resource can be found.</t>
   </si>
   <si>
     <t>Allows the plan definition to be referenced by a single globally unique identifier.</t>
   </si>
   <si>
     <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
@@ -486,6 +496,9 @@
     <t>Definition.identifier</t>
   </si>
   <si>
+    <t>.identifier</t>
+  </si>
+  <si>
     <t>no-gen-base</t>
   </si>
   <si>
@@ -508,6 +521,9 @@
     <t>Definition.version</t>
   </si>
   <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
     <t>FiveWs.version</t>
   </si>
   <si>
@@ -526,7 +542,7 @@
     <t>Support human navigation and code generation.</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-0
+    <t xml:space="preserve">cnl-0
 </t>
   </si>
   <si>
@@ -543,6 +559,9 @@
   </si>
   <si>
     <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
   </si>
   <si>
     <t>PlanDefinition.subtitle</t>
@@ -601,10 +620,13 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.3.0</t>
   </si>
   <si>
     <t>Definition.status {different ValueSet}</t>
+  </si>
+  <si>
+    <t>.status</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -636,13 +658,16 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Group)</t>
+Reference(Group)canonical(MedicinalProductDefinition|SubstanceDefinition|AdministrableProductDefinition|ManufacturedItemDefinition|PackagedProductDefinition)</t>
   </si>
   <si>
     <t>Type of individual the plan definition is focused on</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the plan definition.</t>
+    <t>A code, group definition, or canonical reference that describes  or identifies the intended subject of the plan definition. Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
+  </si>
+  <si>
+    <t>Note that the choice of canonical for the subject element was introduced in R4B to support pharmaceutical quality use cases. To ensure as much backwards-compatibility as possible, it is recommended to only use the new canonical type with these use cases.</t>
   </si>
   <si>
     <t>Patient</t>
@@ -698,6 +723,9 @@
     <t>Definition.date</t>
   </si>
   <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
     <t>FiveWs.recorded</t>
   </si>
   <si>
@@ -720,6 +748,9 @@
   </si>
   <si>
     <t>Definition.publisher</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
   </si>
   <si>
     <t>FiveWs.witness</t>
@@ -744,6 +775,9 @@
     <t>Definition.contact</t>
   </si>
   <si>
+    <t>.participation[typeCode=CALLBCK].role</t>
+  </si>
+  <si>
     <t>PlanDefinition.description</t>
   </si>
   <si>
@@ -763,6 +797,9 @@
     <t>Definition.description</t>
   </si>
   <si>
+    <t>.text</t>
+  </si>
+  <si>
     <t>Disease.name + 'management'</t>
   </si>
   <si>
@@ -824,6 +861,9 @@
     <t>Definition.purpose</t>
   </si>
   <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
     <t>FiveWs.why[x]</t>
   </si>
   <si>
@@ -874,6 +914,9 @@
     <t>Definition.approvalDate</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
     <t>PlanDefinition.lastReviewDate</t>
   </si>
   <si>
@@ -890,6 +933,9 @@
   </si>
   <si>
     <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
   </si>
   <si>
     <t>PlanDefinition.effectivePeriod</t>
@@ -1007,6 +1053,9 @@
     <t>Plan definitions must be able to provide enough information for consumers of the content (and/or interventions or results produced by the content) to be able to determine and understand the justification for and evidence in support of the content.</t>
   </si>
   <si>
+    <t>.outboundRelationship[typeCode=DOC,RSON,PREV, DRIV, USE, COMP] {successor would be PREV w/ inversionInd=true; No support for citation}</t>
+  </si>
+  <si>
     <t>PlanDefinition.relatedArtifact.id</t>
   </si>
   <si>
@@ -1047,7 +1096,7 @@
     <t>The type of relationship to the related artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/related-artifact-type|4.3.0</t>
   </si>
   <si>
     <t>RelatedArtifact.type</t>
@@ -1172,10 +1221,14 @@
     <t>What the plan is trying to accomplish</t>
   </si>
   <si>
-    <t>Goals that describe what the activities within the plan are intended to achieve. For example, weight loss, restoring an activity of daily living, obtaining herd immunity via immunization, meeting a process improvement objective, etc.</t>
+    <t>A goal describes an expected outcome that activities within the plan are intended to achieve. For example, weight loss, restoring an activity of daily living, obtaining herd immunity via immunization, meeting a process improvement objective, meeting the acceptance criteria for a test as specified by a quality specification, etc.</t>
   </si>
   <si>
     <t>Goal information needs to be captured for order sets, protocols, and care plan definitions to better describe the objectives of the protocol activities and to guide the creation of specific goals within the derived care plans and orders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children unless an empty Parameters resource {hasValue() or (children().count() &gt; id.count()) or $this is Parameters}
+</t>
   </si>
   <si>
     <t>PlanDefinition.goal.id</t>
@@ -1389,7 +1442,7 @@
     <t>The target value to be achieved</t>
   </si>
   <si>
-    <t>The target value of the measure to be achieved to signify fulfillment of the goal, e.g. 150 pounds or 7.0%. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any value at or above the low value.</t>
+    <t>The target value of the measure to be achieved to signify fulfillment of the goal, e.g. 150 pounds or 7.0%, or in the case of pharmaceutical quality - NMT 0.6%, Clear solution, etc. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any value at or above the low value.</t>
   </si>
   <si>
     <t>PlanDefinition.goal.target.due</t>
@@ -1411,7 +1464,7 @@
     <t>Action defined by the plan</t>
   </si>
   <si>
-    <t>An action or group of actions to be taken as part of the plan.</t>
+    <t>An action or group of actions to be taken as part of the plan. For example, in clinical care, an action would be to prescribe a particular indicated medication, or perform a particular test as appropriate. In pharmaceutical quality, an action would be the test that needs to be performed on a drug product as defined in the quality specification.</t>
   </si>
   <si>
     <t>Note that there is overlap between many of the elements defined here and the ActivityDefinition resource. When an ActivityDefinition is referenced (using the definition element), the overlapping elements in the plan override the content of the referenced ActivityDefinition unless otherwise documented in the specific elements. See the PlanDefinition resource for more detailed information.</t>
@@ -1420,6 +1473,9 @@
     <t>{Is a contained Definition}</t>
   </si>
   <si>
+    <t>Act[classCode=ACT; moodCode=DEFN]</t>
+  </si>
+  <si>
     <t>Test or Medication for Disease</t>
   </si>
   <si>
@@ -1447,7 +1503,7 @@
     <t>User-visible title</t>
   </si>
   <si>
-    <t>The title of the action displayed to a user.</t>
+    <t>The textual description of the action displayed to a user. For example, when the action is a test to be performed, the title would be the title of the test such as Assay by HPLC.</t>
   </si>
   <si>
     <t>PlanDefinition.action.description</t>
@@ -1480,7 +1536,10 @@
     <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.3.0</t>
+  </si>
+  <si>
+    <t>.priority</t>
   </si>
   <si>
     <t>PlanDefinition.action.code</t>
@@ -1489,7 +1548,16 @@
     <t>Code representing the meaning of the action or sub-actions</t>
   </si>
   <si>
-    <t>A code that provides meaning for the action or action group. For example, a section may have a LOINC code for the section of a documentation template.</t>
+    <t>A code that provides a meaning, grouping, or classification for the action or action group. For example, a section may have a LOINC code for the section of a documentation template. In pharmaceutical quality, an action (Test) such as pH could be classified as a physical property.</t>
+  </si>
+  <si>
+    <t>Provides examples of actions to be performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-code</t>
+  </si>
+  <si>
+    <t>.classCode</t>
   </si>
   <si>
     <t>PlanDefinition.action.reason</t>
@@ -1504,6 +1572,15 @@
     <t>This is different than the clinical evidence documentation, it's an actual business description of the reason for performing the action.</t>
   </si>
   <si>
+    <t>Provides examples of reasons for actions to be performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/action-reason-code</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.documentation</t>
   </si>
   <si>
@@ -1519,16 +1596,20 @@
     <t>What goals this action supports</t>
   </si>
   <si>
-    <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition.</t>
+    <t>Identifies goals that this action supports. The reference must be to a goal element defined within this plan definition. In pharmaceutical quality, a goal represents acceptance criteria (Goal) for a given action (Test), so the goalId would be the unique id of a defined goal element establishing the acceptance criteria for the action.</t>
   </si>
   <si>
     <t>PlanDefinition.action.subject[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Group)canonical</t>
+  </si>
+  <si>
     <t>Type of individual the action is focused on</t>
   </si>
   <si>
-    <t>A code or group definition that describes the intended subject of the action and its children, if any.</t>
+    <t>A code, group definition, or canonical reference that describes the intended subject of the action and its children, if any. Canonical references are allowed to support the definition of protocols for drug and substance quality specifications, and is allowed to reference a MedicinalProductDefinition, SubstanceDefinition, AdministrableProductDefinition, ManufacturedItemDefinition, or PackagedProductDefinition resource.</t>
   </si>
   <si>
     <t>The subject of an action overrides the subject at a parent action or on the root of the PlanDefinition if specified.
@@ -1587,7 +1668,7 @@
     <t>Defines the kinds of conditions that can appear on actions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-condition-kind|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.condition.expression</t>
@@ -1670,7 +1751,7 @@
     <t>Defines the types of relationships between actions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-relationship-type|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.relatedAction.offset[x]</t>
@@ -1699,6 +1780,9 @@
     <t>An optional value describing when the action should be performed.</t>
   </si>
   <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.participant</t>
   </si>
   <si>
@@ -1708,6 +1792,9 @@
     <t>Indicates who should participate in performing the action described.</t>
   </si>
   <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.participant.id</t>
   </si>
   <si>
@@ -1729,7 +1816,10 @@
     <t>The type of participant for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-participant-type|4.3.0</t>
+  </si>
+  <si>
+    <t>.role.classCode</t>
   </si>
   <si>
     <t>PlanDefinition.action.participant.role</t>
@@ -1744,7 +1834,10 @@
     <t>Defines roles played by participants for the action.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-participant-role</t>
+    <t>http://terminology.hl7.org/ValueSet/action-participant-role</t>
+  </si>
+  <si>
+    <t>.role.code</t>
   </si>
   <si>
     <t>PlanDefinition.action.type</t>
@@ -1762,6 +1855,9 @@
     <t>http://hl7.org/fhir/ValueSet/action-type</t>
   </si>
   <si>
+    <t>.moodCode { Maybe? this is effectively Create, Update, or Delete }</t>
+  </si>
+  <si>
     <t>PlanDefinition.action.groupingBehavior</t>
   </si>
   <si>
@@ -1774,7 +1870,7 @@
     <t>Defines organization behavior of a group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-grouping-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-grouping-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.selectionBehavior</t>
@@ -1789,7 +1885,7 @@
     <t>Defines selection behavior of a group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-selection-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-selection-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.requiredBehavior</t>
@@ -1804,7 +1900,7 @@
     <t>Defines expectations around whether an action or action group is required.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-required-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-required-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.precheckBehavior</t>
@@ -1819,7 +1915,7 @@
     <t>Defines selection frequency behavior for an action or group.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-precheck-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-precheck-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.cardinalityBehavior</t>
@@ -1834,7 +1930,7 @@
     <t>Defines behavior for an action or a group for how many times that item may be repeated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/action-cardinality-behavior|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/action-cardinality-behavior|4.3.0</t>
   </si>
   <si>
     <t>PlanDefinition.action.definition[x]</t>
@@ -1899,10 +1995,10 @@
     <t>The path to the element to be set dynamically</t>
   </si>
   <si>
-    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/R4/fhirpath.html#simple) for full details).</t>
-  </si>
-  <si>
-    <t>To specify the path to the current action being realized, the %action environment variable is available in this path. For example, to specify the description element of the target action, the path would be %action.description. The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/R4/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
+    <t>The path to the element to be customized. This is the path on the resource that will hold the result of the calculation defined by the expression. The specified path SHALL be a FHIRPath resolveable on the specified target type of the ActivityDefinition, and SHALL consist only of identifiers, constant indexers, and a restricted subset of functions. The path is allowed to contain qualifiers (.) to traverse sub-elements, as well as indexers ([x]) to traverse multiple-cardinality sub-elements (see the [Simple FHIRPath Profile](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) for full details).</t>
+  </si>
+  <si>
+    <t>To specify the path to the current action being realized, the %action environment variable is available in this path. For example, to specify the description element of the target action, the path would be %action.description. The path attribute contains a [Simple FHIRPath Subset](http://hl7.org/fhir/2021Mar/fhirpath.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
     <t>PlanDefinition.action.dynamicValue.expression</t>
@@ -2255,9 +2351,9 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="38.08984375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.078125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.95703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="129.28125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.078125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="44.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2483,21 +2579,21 @@
         <v>43</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2508,7 +2604,7 @@
         <v>73</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>72</v>
@@ -2517,19 +2613,19 @@
         <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2579,13 +2675,13 @@
         <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>72</v>
@@ -2611,7 +2707,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2622,7 +2718,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>72</v>
@@ -2631,16 +2727,16 @@
         <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2691,19 +2787,19 @@
         <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>72</v>
@@ -2723,7 +2819,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2734,28 +2830,28 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2805,19 +2901,19 @@
         <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>72</v>
@@ -2837,7 +2933,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2848,7 +2944,7 @@
         <v>73</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>72</v>
@@ -2860,16 +2956,16 @@
         <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2895,13 +2991,13 @@
         <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>72</v>
@@ -2919,19 +3015,19 @@
         <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>72</v>
@@ -2951,18 +3047,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>72</v>
@@ -2974,16 +3070,16 @@
         <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3033,31 +3129,31 @@
         <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>72</v>
@@ -3065,11 +3161,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3088,16 +3184,16 @@
         <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3147,7 +3243,7 @@
         <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
@@ -3159,19 +3255,19 @@
         <v>72</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>72</v>
@@ -3179,11 +3275,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3202,16 +3298,16 @@
         <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3261,7 +3357,7 @@
         <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
@@ -3273,19 +3369,19 @@
         <v>72</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>72</v>
@@ -3293,11 +3389,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3310,25 +3406,25 @@
         <v>72</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>72</v>
@@ -3377,7 +3473,7 @@
         <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -3389,19 +3485,19 @@
         <v>72</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>72</v>
@@ -3409,7 +3505,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3420,7 +3516,7 @@
         <v>73</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>72</v>
@@ -3429,22 +3525,22 @@
         <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>72</v>
@@ -3493,28 +3589,28 @@
         <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>72</v>
@@ -3525,7 +3621,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3545,22 +3641,22 @@
         <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>72</v>
@@ -3609,7 +3705,7 @@
         <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3621,19 +3717,19 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>72</v>
@@ -3641,7 +3737,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3652,7 +3748,7 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>72</v>
@@ -3661,19 +3757,19 @@
         <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3723,28 +3819,28 @@
         <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>72</v>
@@ -3755,7 +3851,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3766,7 +3862,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>72</v>
@@ -3775,22 +3871,22 @@
         <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>72</v>
@@ -3839,25 +3935,25 @@
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>72</v>
@@ -3871,7 +3967,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3882,7 +3978,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>72</v>
@@ -3891,19 +3987,19 @@
         <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3953,25 +4049,25 @@
         <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>72</v>
@@ -3985,7 +4081,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3996,7 +4092,7 @@
         <v>73</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>72</v>
@@ -4008,13 +4104,13 @@
         <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4065,25 +4161,25 @@
         <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>72</v>
@@ -4097,7 +4193,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4108,7 +4204,7 @@
         <v>73</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>72</v>
@@ -4117,16 +4213,16 @@
         <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4138,7 +4234,7 @@
         <v>72</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>72</v>
@@ -4153,49 +4249,49 @@
         <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>72</v>
@@ -4209,7 +4305,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4217,31 +4313,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4267,52 +4363,52 @@
         <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>72</v>
@@ -4323,7 +4419,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4334,7 +4430,7 @@
         <v>73</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>72</v>
@@ -4343,22 +4439,22 @@
         <v>72</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>72</v>
@@ -4407,28 +4503,28 @@
         <v>72</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>72</v>
@@ -4439,7 +4535,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4450,7 +4546,7 @@
         <v>73</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>72</v>
@@ -4462,21 +4558,23 @@
         <v>72</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>72</v>
@@ -4497,47 +4595,47 @@
         <v>72</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>72</v>
@@ -4551,10 +4649,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>72</v>
@@ -4564,7 +4662,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>72</v>
@@ -4576,27 +4674,29 @@
         <v>72</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>72</v>
@@ -4611,13 +4711,13 @@
         <v>72</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>72</v>
@@ -4635,25 +4735,25 @@
         <v>72</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>72</v>
@@ -4667,18 +4767,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>72</v>
@@ -4687,19 +4787,19 @@
         <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4749,28 +4849,28 @@
         <v>72</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>72</v>
@@ -4781,7 +4881,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4792,7 +4892,7 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>72</v>
@@ -4801,22 +4901,22 @@
         <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>72</v>
@@ -4826,7 +4926,7 @@
         <v>72</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>72</v>
@@ -4865,28 +4965,28 @@
         <v>72</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>72</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>72</v>
@@ -4897,7 +4997,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4917,19 +5017,19 @@
         <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4979,7 +5079,7 @@
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>73</v>
@@ -4991,13 +5091,13 @@
         <v>72</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>72</v>
@@ -5011,7 +5111,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5022,7 +5122,7 @@
         <v>73</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>72</v>
@@ -5031,19 +5131,19 @@
         <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5093,25 +5193,25 @@
         <v>72</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>72</v>
@@ -5120,12 +5220,12 @@
         <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5145,22 +5245,22 @@
         <v>72</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>72</v>
@@ -5209,7 +5309,7 @@
         <v>72</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>73</v>
@@ -5221,13 +5321,13 @@
         <v>72</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>72</v>
@@ -5241,7 +5341,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5261,19 +5361,19 @@
         <v>72</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5299,13 +5399,13 @@
         <v>72</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>72</v>
@@ -5323,7 +5423,7 @@
         <v>72</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>73</v>
@@ -5335,13 +5435,13 @@
         <v>72</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>72</v>
@@ -5355,7 +5455,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5366,7 +5466,7 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>72</v>
@@ -5378,16 +5478,16 @@
         <v>72</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5437,31 +5537,31 @@
         <v>72</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>72</v>
@@ -5469,7 +5569,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5480,7 +5580,7 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>72</v>
@@ -5492,13 +5592,13 @@
         <v>72</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5549,25 +5649,25 @@
         <v>72</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>72</v>
@@ -5581,18 +5681,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>72</v>
@@ -5604,17 +5704,17 @@
         <v>72</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>72</v>
@@ -5663,31 +5763,31 @@
         <v>72</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>72</v>
@@ -5695,7 +5795,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5706,7 +5806,7 @@
         <v>73</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>72</v>
@@ -5718,16 +5818,16 @@
         <v>72</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5777,31 +5877,31 @@
         <v>72</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>72</v>
@@ -5809,7 +5909,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5820,7 +5920,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>72</v>
@@ -5832,19 +5932,19 @@
         <v>72</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>72</v>
@@ -5893,31 +5993,31 @@
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>72</v>
@@ -5925,7 +6025,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5936,7 +6036,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>72</v>
@@ -5945,22 +6045,22 @@
         <v>72</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>72</v>
@@ -6009,31 +6109,31 @@
         <v>72</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>72</v>
@@ -6041,7 +6141,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6064,17 +6164,17 @@
         <v>72</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>72</v>
@@ -6084,7 +6184,7 @@
         <v>72</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>72</v>
@@ -6099,13 +6199,13 @@
         <v>72</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>72</v>
@@ -6123,7 +6223,7 @@
         <v>72</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>73</v>
@@ -6135,13 +6235,13 @@
         <v>72</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>72</v>
@@ -6155,7 +6255,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6178,13 +6278,13 @@
         <v>72</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6235,7 +6335,7 @@
         <v>72</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>73</v>
@@ -6247,19 +6347,19 @@
         <v>72</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>298</v>
+        <v>72</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>72</v>
@@ -6267,7 +6367,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6290,13 +6390,13 @@
         <v>72</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6347,7 +6447,7 @@
         <v>72</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>73</v>
@@ -6359,13 +6459,13 @@
         <v>72</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>72</v>
@@ -6379,7 +6479,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6402,13 +6502,13 @@
         <v>72</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6459,7 +6559,7 @@
         <v>72</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6471,19 +6571,19 @@
         <v>72</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>72</v>
@@ -6491,7 +6591,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6514,13 +6614,13 @@
         <v>72</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6571,7 +6671,7 @@
         <v>72</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6583,19 +6683,19 @@
         <v>72</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>72</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>305</v>
+        <v>72</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>72</v>
@@ -6603,7 +6703,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6626,19 +6726,19 @@
         <v>72</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>72</v>
@@ -6687,7 +6787,7 @@
         <v>72</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6699,13 +6799,13 @@
         <v>72</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>72</v>
+        <v>330</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>72</v>
@@ -6719,7 +6819,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6730,7 +6830,7 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>72</v>
@@ -6742,13 +6842,13 @@
         <v>72</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6799,13 +6899,13 @@
         <v>72</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>72</v>
@@ -6817,13 +6917,13 @@
         <v>72</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>72</v>
@@ -6831,11 +6931,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6854,16 +6954,16 @@
         <v>72</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6901,19 +7001,19 @@
         <v>72</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -6925,19 +7025,19 @@
         <v>72</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>72</v>
@@ -6945,7 +7045,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6953,10 +7053,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>72</v>
@@ -6965,16 +7065,16 @@
         <v>72</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -7001,13 +7101,11 @@
         <v>72</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>72</v>
@@ -7025,19 +7123,19 @@
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>72</v>
@@ -7057,7 +7155,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7068,7 +7166,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>72</v>
@@ -7077,16 +7175,16 @@
         <v>72</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7137,19 +7235,19 @@
         <v>72</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>72</v>
@@ -7169,7 +7267,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7180,7 +7278,7 @@
         <v>73</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>72</v>
@@ -7189,16 +7287,16 @@
         <v>72</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7249,19 +7347,19 @@
         <v>72</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>72</v>
@@ -7281,7 +7379,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7292,7 +7390,7 @@
         <v>73</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>72</v>
@@ -7301,19 +7399,19 @@
         <v>72</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7363,19 +7461,19 @@
         <v>72</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>72</v>
@@ -7395,7 +7493,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7406,7 +7504,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>72</v>
@@ -7415,19 +7513,19 @@
         <v>72</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7477,19 +7575,19 @@
         <v>72</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>72</v>
@@ -7504,12 +7602,12 @@
         <v>72</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7520,7 +7618,7 @@
         <v>73</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>72</v>
@@ -7529,16 +7627,16 @@
         <v>72</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7589,19 +7687,19 @@
         <v>72</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>72</v>
@@ -7621,7 +7719,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7632,7 +7730,7 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>72</v>
@@ -7641,19 +7739,19 @@
         <v>72</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7703,19 +7801,19 @@
         <v>72</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>72</v>
@@ -7735,7 +7833,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7758,13 +7856,13 @@
         <v>72</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7815,7 +7913,7 @@
         <v>72</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -7827,13 +7925,13 @@
         <v>72</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>72</v>
@@ -7847,7 +7945,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7870,17 +7968,17 @@
         <v>72</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>72</v>
@@ -7929,7 +8027,7 @@
         <v>72</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>73</v>
@@ -7941,13 +8039,13 @@
         <v>72</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>72</v>
@@ -7961,7 +8059,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7972,7 +8070,7 @@
         <v>73</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>72</v>
@@ -7984,13 +8082,13 @@
         <v>72</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8041,13 +8139,13 @@
         <v>72</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>72</v>
@@ -8059,13 +8157,13 @@
         <v>72</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>72</v>
@@ -8073,11 +8171,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8096,16 +8194,16 @@
         <v>72</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8155,7 +8253,7 @@
         <v>72</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>73</v>
@@ -8167,19 +8265,19 @@
         <v>72</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>72</v>
@@ -8187,11 +8285,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8204,25 +8302,25 @@
         <v>72</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>72</v>
@@ -8271,7 +8369,7 @@
         <v>72</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>73</v>
@@ -8283,19 +8381,19 @@
         <v>72</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>72</v>
@@ -8303,7 +8401,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8314,7 +8412,7 @@
         <v>73</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>72</v>
@@ -8326,13 +8424,13 @@
         <v>72</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8359,13 +8457,13 @@
         <v>72</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>72</v>
@@ -8383,25 +8481,25 @@
         <v>72</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>72</v>
@@ -8415,7 +8513,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8423,10 +8521,10 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>72</v>
@@ -8438,16 +8536,16 @@
         <v>72</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8473,13 +8571,13 @@
         <v>72</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>72</v>
@@ -8497,25 +8595,25 @@
         <v>72</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>72</v>
@@ -8529,7 +8627,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8540,7 +8638,7 @@
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>72</v>
@@ -8552,13 +8650,13 @@
         <v>72</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8609,13 +8707,13 @@
         <v>72</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>72</v>
@@ -8627,13 +8725,13 @@
         <v>72</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>72</v>
@@ -8641,11 +8739,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8664,16 +8762,16 @@
         <v>72</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8711,19 +8809,19 @@
         <v>72</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>73</v>
@@ -8735,19 +8833,19 @@
         <v>72</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>72</v>
@@ -8755,7 +8853,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8775,22 +8873,22 @@
         <v>72</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>72</v>
@@ -8839,7 +8937,7 @@
         <v>72</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>73</v>
@@ -8851,19 +8949,19 @@
         <v>72</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>397</v>
+        <v>72</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>72</v>
@@ -8871,7 +8969,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8882,7 +8980,7 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>72</v>
@@ -8891,22 +8989,22 @@
         <v>72</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>72</v>
@@ -8955,39 +9053,39 @@
         <v>72</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>72</v>
+        <v>421</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8998,7 +9096,7 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>72</v>
@@ -9010,13 +9108,13 @@
         <v>72</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9043,13 +9141,13 @@
         <v>72</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>72</v>
@@ -9067,25 +9165,25 @@
         <v>72</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>72</v>
@@ -9099,7 +9197,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9110,7 +9208,7 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>72</v>
@@ -9122,13 +9220,13 @@
         <v>72</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9155,13 +9253,13 @@
         <v>72</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>72</v>
@@ -9179,25 +9277,25 @@
         <v>72</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>72</v>
@@ -9211,7 +9309,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9234,13 +9332,13 @@
         <v>72</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9267,13 +9365,13 @@
         <v>72</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>72</v>
@@ -9291,7 +9389,7 @@
         <v>72</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>73</v>
@@ -9303,13 +9401,13 @@
         <v>72</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>72</v>
@@ -9318,12 +9416,12 @@
         <v>72</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9346,13 +9444,13 @@
         <v>72</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>440</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9403,7 +9501,7 @@
         <v>72</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>73</v>
@@ -9415,13 +9513,13 @@
         <v>72</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>72</v>
@@ -9435,7 +9533,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9458,13 +9556,13 @@
         <v>72</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9515,7 +9613,7 @@
         <v>72</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>73</v>
@@ -9527,13 +9625,13 @@
         <v>72</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>72</v>
@@ -9547,7 +9645,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9558,7 +9656,7 @@
         <v>73</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>72</v>
@@ -9570,13 +9668,13 @@
         <v>72</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9627,13 +9725,13 @@
         <v>72</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>72</v>
@@ -9645,13 +9743,13 @@
         <v>72</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>72</v>
@@ -9659,11 +9757,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9682,16 +9780,16 @@
         <v>72</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9741,7 +9839,7 @@
         <v>72</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>73</v>
@@ -9753,19 +9851,19 @@
         <v>72</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>72</v>
@@ -9773,11 +9871,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9790,25 +9888,25 @@
         <v>72</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>72</v>
@@ -9857,7 +9955,7 @@
         <v>72</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>73</v>
@@ -9869,19 +9967,19 @@
         <v>72</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>72</v>
@@ -9889,7 +9987,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9900,7 +9998,7 @@
         <v>73</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>72</v>
@@ -9912,13 +10010,13 @@
         <v>72</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9945,13 +10043,13 @@
         <v>72</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>72</v>
@@ -9969,25 +10067,25 @@
         <v>72</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>72</v>
@@ -10001,7 +10099,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10012,7 +10110,7 @@
         <v>73</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>72</v>
@@ -10024,13 +10122,13 @@
         <v>72</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10081,25 +10179,25 @@
         <v>72</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>72</v>
@@ -10113,7 +10211,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10124,7 +10222,7 @@
         <v>73</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>72</v>
@@ -10136,13 +10234,13 @@
         <v>72</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10193,25 +10291,25 @@
         <v>72</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>72</v>
@@ -10225,7 +10323,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10248,16 +10346,16 @@
         <v>72</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10307,7 +10405,7 @@
         <v>72</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>73</v>
@@ -10319,13 +10417,13 @@
         <v>72</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>72</v>
@@ -10334,12 +10432,12 @@
         <v>72</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>449</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10350,7 +10448,7 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>72</v>
@@ -10362,13 +10460,13 @@
         <v>72</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10419,13 +10517,13 @@
         <v>72</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>72</v>
@@ -10437,13 +10535,13 @@
         <v>72</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>72</v>
@@ -10451,11 +10549,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10474,16 +10572,16 @@
         <v>72</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10533,7 +10631,7 @@
         <v>72</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>73</v>
@@ -10545,19 +10643,19 @@
         <v>72</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>72</v>
@@ -10565,11 +10663,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10582,25 +10680,25 @@
         <v>72</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>72</v>
@@ -10649,7 +10747,7 @@
         <v>72</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
@@ -10661,19 +10759,19 @@
         <v>72</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>72</v>
@@ -10681,7 +10779,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10692,7 +10790,7 @@
         <v>73</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>72</v>
@@ -10704,13 +10802,13 @@
         <v>72</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10761,25 +10859,25 @@
         <v>72</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>72</v>
@@ -10793,7 +10891,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10804,7 +10902,7 @@
         <v>73</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>72</v>
@@ -10816,13 +10914,13 @@
         <v>72</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10873,25 +10971,25 @@
         <v>72</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>72</v>
@@ -10905,7 +11003,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10916,7 +11014,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>72</v>
@@ -10928,13 +11026,13 @@
         <v>72</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10985,25 +11083,25 @@
         <v>72</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>72</v>
@@ -11017,7 +11115,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11028,7 +11126,7 @@
         <v>73</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>72</v>
@@ -11040,13 +11138,13 @@
         <v>72</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11097,25 +11195,25 @@
         <v>72</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>72</v>
@@ -11129,7 +11227,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11140,7 +11238,7 @@
         <v>73</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>72</v>
@@ -11152,13 +11250,13 @@
         <v>72</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11185,13 +11283,13 @@
         <v>72</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>72</v>
@@ -11209,25 +11307,25 @@
         <v>72</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>72</v>
+        <v>488</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>72</v>
@@ -11241,7 +11339,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11264,13 +11362,13 @@
         <v>72</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11297,13 +11395,13 @@
         <v>72</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>72</v>
+        <v>492</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>72</v>
@@ -11321,7 +11419,7 @@
         <v>72</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -11333,13 +11431,13 @@
         <v>72</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>72</v>
+        <v>494</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>72</v>
@@ -11353,7 +11451,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11376,16 +11474,16 @@
         <v>72</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11411,13 +11509,13 @@
         <v>72</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>72</v>
+        <v>306</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>72</v>
+        <v>499</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>72</v>
@@ -11435,7 +11533,7 @@
         <v>72</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
@@ -11447,13 +11545,13 @@
         <v>72</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>72</v>
+        <v>501</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>72</v>
@@ -11467,7 +11565,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11490,13 +11588,13 @@
         <v>72</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11547,7 +11645,7 @@
         <v>72</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -11559,13 +11657,13 @@
         <v>72</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>72</v>
@@ -11579,7 +11677,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11602,13 +11700,13 @@
         <v>72</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>481</v>
+        <v>506</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11659,7 +11757,7 @@
         <v>72</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
@@ -11671,13 +11769,13 @@
         <v>72</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>72</v>
@@ -11691,7 +11789,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11702,7 +11800,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>72</v>
@@ -11714,25 +11812,25 @@
         <v>72</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>198</v>
+        <v>509</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="P84" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q84" t="s" s="2">
         <v>72</v>
@@ -11753,13 +11851,13 @@
         <v>72</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>72</v>
@@ -11777,25 +11875,25 @@
         <v>72</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>72</v>
@@ -11809,7 +11907,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11832,13 +11930,13 @@
         <v>72</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11889,7 +11987,7 @@
         <v>72</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
@@ -11901,13 +11999,13 @@
         <v>72</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>72</v>
@@ -11921,7 +12019,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11944,16 +12042,16 @@
         <v>72</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -12003,7 +12101,7 @@
         <v>72</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
@@ -12015,13 +12113,13 @@
         <v>72</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>72</v>
@@ -12035,7 +12133,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12046,7 +12144,7 @@
         <v>73</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>72</v>
@@ -12058,13 +12156,13 @@
         <v>72</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12115,13 +12213,13 @@
         <v>72</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>72</v>
@@ -12133,13 +12231,13 @@
         <v>72</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>72</v>
@@ -12147,11 +12245,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -12170,16 +12268,16 @@
         <v>72</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12229,7 +12327,7 @@
         <v>72</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>73</v>
@@ -12241,19 +12339,19 @@
         <v>72</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>72</v>
@@ -12261,11 +12359,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12278,25 +12376,25 @@
         <v>72</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>72</v>
@@ -12345,7 +12443,7 @@
         <v>72</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>73</v>
@@ -12357,19 +12455,19 @@
         <v>72</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>72</v>
@@ -12377,7 +12475,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12385,10 +12483,10 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>72</v>
@@ -12400,16 +12498,16 @@
         <v>72</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12435,13 +12533,13 @@
         <v>72</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>72</v>
@@ -12459,25 +12557,25 @@
         <v>72</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>72</v>
@@ -12491,7 +12589,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12502,7 +12600,7 @@
         <v>73</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>72</v>
@@ -12514,16 +12612,16 @@
         <v>72</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12573,25 +12671,25 @@
         <v>72</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>72</v>
@@ -12605,7 +12703,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12628,13 +12726,13 @@
         <v>72</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12685,7 +12783,7 @@
         <v>72</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
@@ -12697,13 +12795,13 @@
         <v>72</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>72</v>
@@ -12717,7 +12815,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12740,13 +12838,13 @@
         <v>72</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12797,7 +12895,7 @@
         <v>72</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -12809,13 +12907,13 @@
         <v>72</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>72</v>
@@ -12829,7 +12927,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12852,16 +12950,16 @@
         <v>72</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -12911,7 +13009,7 @@
         <v>72</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
@@ -12923,13 +13021,13 @@
         <v>72</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>72</v>
@@ -12943,7 +13041,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12954,7 +13052,7 @@
         <v>73</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>72</v>
@@ -12966,13 +13064,13 @@
         <v>72</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13023,13 +13121,13 @@
         <v>72</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>72</v>
@@ -13041,13 +13139,13 @@
         <v>72</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>72</v>
@@ -13055,11 +13153,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13078,16 +13176,16 @@
         <v>72</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13137,7 +13235,7 @@
         <v>72</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>73</v>
@@ -13149,19 +13247,19 @@
         <v>72</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>72</v>
@@ -13169,11 +13267,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13186,25 +13284,25 @@
         <v>72</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>72</v>
@@ -13253,7 +13351,7 @@
         <v>72</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>73</v>
@@ -13265,19 +13363,19 @@
         <v>72</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>72</v>
@@ -13285,7 +13383,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13293,10 +13391,10 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>72</v>
@@ -13308,13 +13406,13 @@
         <v>72</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13365,25 +13463,25 @@
         <v>72</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>72</v>
@@ -13397,7 +13495,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13405,10 +13503,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>72</v>
@@ -13420,13 +13518,13 @@
         <v>72</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13453,13 +13551,13 @@
         <v>72</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>72</v>
@@ -13477,25 +13575,25 @@
         <v>72</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>72</v>
@@ -13509,7 +13607,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13520,7 +13618,7 @@
         <v>73</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>72</v>
@@ -13532,13 +13630,13 @@
         <v>72</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13589,25 +13687,25 @@
         <v>72</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>72</v>
@@ -13621,7 +13719,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13632,7 +13730,7 @@
         <v>73</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>72</v>
@@ -13644,13 +13742,13 @@
         <v>72</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13701,25 +13799,25 @@
         <v>72</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>72</v>
+        <v>566</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>72</v>
@@ -13733,7 +13831,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13756,13 +13854,13 @@
         <v>72</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13813,7 +13911,7 @@
         <v>72</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>567</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>73</v>
@@ -13825,13 +13923,13 @@
         <v>72</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>72</v>
+        <v>570</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>72</v>
@@ -13845,7 +13943,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13856,7 +13954,7 @@
         <v>73</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>72</v>
@@ -13868,13 +13966,13 @@
         <v>72</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -13925,13 +14023,13 @@
         <v>72</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>72</v>
@@ -13943,13 +14041,13 @@
         <v>72</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>72</v>
@@ -13957,11 +14055,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>572</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13980,16 +14078,16 @@
         <v>72</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -14039,7 +14137,7 @@
         <v>72</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>73</v>
@@ -14051,19 +14149,19 @@
         <v>72</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>72</v>
@@ -14071,11 +14169,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -14088,25 +14186,25 @@
         <v>72</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>72</v>
@@ -14155,7 +14253,7 @@
         <v>72</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>73</v>
@@ -14167,19 +14265,19 @@
         <v>72</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>72</v>
@@ -14187,7 +14285,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14195,10 +14293,10 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>72</v>
@@ -14210,13 +14308,13 @@
         <v>72</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>576</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -14243,13 +14341,13 @@
         <v>72</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>72</v>
@@ -14267,25 +14365,25 @@
         <v>72</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>72</v>
@@ -14299,7 +14397,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14310,7 +14408,7 @@
         <v>73</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>72</v>
@@ -14322,13 +14420,13 @@
         <v>72</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -14355,13 +14453,13 @@
         <v>72</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>72</v>
@@ -14379,25 +14477,25 @@
         <v>72</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>72</v>
+        <v>585</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>72</v>
@@ -14411,7 +14509,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14422,7 +14520,7 @@
         <v>73</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>72</v>
@@ -14434,13 +14532,13 @@
         <v>72</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14467,13 +14565,13 @@
         <v>72</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>72</v>
@@ -14491,25 +14589,25 @@
         <v>72</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>556</v>
+        <v>586</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>72</v>
+        <v>591</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>72</v>
@@ -14523,7 +14621,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14534,7 +14632,7 @@
         <v>73</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>72</v>
@@ -14546,13 +14644,13 @@
         <v>72</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>562</v>
+        <v>593</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14579,13 +14677,13 @@
         <v>72</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>564</v>
+        <v>595</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>72</v>
@@ -14603,25 +14701,25 @@
         <v>72</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>561</v>
+        <v>592</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>72</v>
@@ -14635,7 +14733,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14646,7 +14744,7 @@
         <v>73</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>72</v>
@@ -14658,13 +14756,13 @@
         <v>72</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>568</v>
+        <v>599</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14691,13 +14789,13 @@
         <v>72</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>72</v>
@@ -14715,25 +14813,25 @@
         <v>72</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>566</v>
+        <v>597</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>72</v>
@@ -14747,7 +14845,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14758,7 +14856,7 @@
         <v>73</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>72</v>
@@ -14770,13 +14868,13 @@
         <v>72</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>573</v>
+        <v>604</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14803,13 +14901,13 @@
         <v>72</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>575</v>
+        <v>606</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>72</v>
@@ -14827,25 +14925,25 @@
         <v>72</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>72</v>
@@ -14859,7 +14957,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14870,7 +14968,7 @@
         <v>73</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>72</v>
@@ -14882,13 +14980,13 @@
         <v>72</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>577</v>
+        <v>608</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>578</v>
+        <v>609</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14915,13 +15013,13 @@
         <v>72</v>
       </c>
       <c r="W112" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="Z112" t="s" s="2">
         <v>72</v>
@@ -14939,25 +15037,25 @@
         <v>72</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>72</v>
@@ -14971,7 +15069,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14982,7 +15080,7 @@
         <v>73</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>72</v>
@@ -14994,13 +15092,13 @@
         <v>72</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -15027,13 +15125,13 @@
         <v>72</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>72</v>
@@ -15051,25 +15149,25 @@
         <v>72</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>72</v>
@@ -15083,7 +15181,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15094,7 +15192,7 @@
         <v>73</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>72</v>
@@ -15106,16 +15204,16 @@
         <v>72</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15165,25 +15263,25 @@
         <v>72</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>72</v>
+        <v>466</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>72</v>
@@ -15197,7 +15295,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15208,7 +15306,7 @@
         <v>73</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>72</v>
@@ -15220,16 +15318,16 @@
         <v>72</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -15279,25 +15377,25 @@
         <v>72</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>72</v>
@@ -15311,7 +15409,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15334,16 +15432,16 @@
         <v>72</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -15393,7 +15491,7 @@
         <v>72</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>73</v>
@@ -15405,13 +15503,13 @@
         <v>72</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>92</v>
+        <v>386</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>72</v>
@@ -15425,7 +15523,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15436,7 +15534,7 @@
         <v>73</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>72</v>
@@ -15448,13 +15546,13 @@
         <v>72</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15505,13 +15603,13 @@
         <v>72</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>72</v>
@@ -15523,13 +15621,13 @@
         <v>72</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>72</v>
@@ -15537,11 +15635,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -15560,16 +15658,16 @@
         <v>72</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -15619,7 +15717,7 @@
         <v>72</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>73</v>
@@ -15631,19 +15729,19 @@
         <v>72</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>319</v>
+        <v>72</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>72</v>
@@ -15651,11 +15749,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -15668,25 +15766,25 @@
         <v>72</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>72</v>
@@ -15735,7 +15833,7 @@
         <v>72</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>73</v>
@@ -15747,19 +15845,19 @@
         <v>72</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>72</v>
@@ -15767,7 +15865,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15778,7 +15876,7 @@
         <v>73</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>72</v>
@@ -15790,16 +15888,16 @@
         <v>72</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -15849,25 +15947,25 @@
         <v>72</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>72</v>
@@ -15881,7 +15979,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15892,7 +15990,7 @@
         <v>73</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>72</v>
@@ -15904,16 +16002,16 @@
         <v>72</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15963,25 +16061,25 @@
         <v>72</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>72</v>
@@ -15995,7 +16093,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16021,10 +16119,10 @@
         <v>72</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>612</v>
+        <v>643</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16075,7 +16173,7 @@
         <v>72</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>73</v>
@@ -16087,13 +16185,13 @@
         <v>72</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>72</v>
